--- a/114年全年月報.xlsx
+++ b/114年全年月報.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649D36E4-DF41-4E9E-B4D9-4BF80A5A0836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="各區中隊" sheetId="2" r:id="rId1"/>
@@ -13,7 +14,7 @@
     <sheet name="資收車進廠-1月" sheetId="4" r:id="rId4"/>
     <sheet name="委外廠商 (樣本)" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -607,7 +608,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
@@ -615,7 +616,7 @@
     <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -942,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,34 +983,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1024,9 +1013,6 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,7 +1052,7 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,7 +1061,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,7 +1070,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,19 +1079,16 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,10 +1103,7 @@
     <xf numFmtId="179" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,13 +1112,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1162,7 +1139,7 @@
     <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,7 +1157,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1189,7 +1166,7 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,16 +1175,13 @@
     <xf numFmtId="176" fontId="5" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,10 +1190,10 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1249,13 +1223,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1293,7 +1275,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1327,6 +1309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1361,9 +1344,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1536,75 +1520,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G31" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="F2" sqref="F2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H42" sqref="H42"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="36.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="37" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="96" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="46"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1647,497 +1630,497 @@
       <c r="N3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="62" t="s">
         <v>131</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="47">
         <v>4.87</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="47">
         <v>271.14</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="45">
         <v>395.73</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="47">
         <v>410.06</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="47">
         <v>381.28</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="82">
         <v>424.39</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="55">
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="49">
         <f>SUM(B4:M4)</f>
         <v>1887.4699999999998</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="94" t="s">
+      <c r="P4" s="85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="47">
         <v>49.32</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="47">
         <v>42.72</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="45">
         <v>44.8</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="47">
         <v>45.43</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="47">
         <v>48.03</v>
       </c>
-      <c r="G5" s="92">
+      <c r="G5" s="83">
         <v>50.86</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="55">
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="49">
         <f t="shared" ref="N5:N15" si="0">SUM(B5:M5)</f>
         <v>281.15999999999997</v>
       </c>
-      <c r="O5" s="81" t="s">
+      <c r="O5" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="47">
         <v>26.97</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="47">
         <v>16.38</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="45">
         <v>21.88</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="47">
         <v>22.83</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="47">
         <v>29.66</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="82">
         <v>25.11</v>
       </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="55">
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="49">
         <f t="shared" si="0"/>
         <v>142.82999999999998</v>
       </c>
-      <c r="O6" s="81" t="s">
+      <c r="O6" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="47">
         <v>14.03</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="47">
         <v>29.46</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="45">
         <v>21.47</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="47">
         <v>19.309999999999999</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="47">
         <v>24.79</v>
       </c>
-      <c r="G7" s="91">
+      <c r="G7" s="82">
         <v>22.7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="55">
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="49">
         <f t="shared" si="0"/>
         <v>131.76</v>
       </c>
-      <c r="O7" s="81" t="s">
+      <c r="O7" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="47">
         <v>6.55</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="47">
         <v>4</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="45">
         <v>9.64</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="47">
         <v>6.01</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="47">
         <v>4.54</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="82">
         <v>5.48</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="55">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49">
         <f t="shared" si="0"/>
         <v>36.22</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="52">
+      <c r="B9" s="47">
         <v>27.91</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="47">
         <v>21.42</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="45">
         <v>21.98</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="47">
         <v>22.37</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="47">
         <v>25.96</v>
       </c>
-      <c r="G9" s="92">
+      <c r="G9" s="83">
         <v>21.08</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="55">
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49">
         <f t="shared" si="0"/>
         <v>140.72000000000003</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="47">
         <v>12.68</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="47">
         <v>11.46</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="45">
         <v>20.059999999999999</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="47">
         <v>21.823</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="47">
         <v>20.58</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="82">
         <v>25.63</v>
       </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="55">
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49">
         <f t="shared" si="0"/>
         <v>112.23299999999999</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="47">
         <v>13.53</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="47">
         <v>6.56</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="45">
         <v>12.8</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="47">
         <v>19.11</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="47">
         <v>13.94</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="83">
         <v>14.74</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="55">
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="49">
         <f t="shared" si="0"/>
         <v>80.679999999999993</v>
       </c>
-      <c r="O11" s="81" t="s">
+      <c r="O11" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="47">
         <v>8.48</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="47">
         <v>13.48</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="45">
         <v>4.8600000000000003</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="47">
         <v>7.04</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="47">
         <v>13.94</v>
       </c>
-      <c r="G12" s="92">
+      <c r="G12" s="83">
         <v>9.1</v>
       </c>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="55">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="49">
         <f t="shared" si="0"/>
         <v>56.9</v>
       </c>
-      <c r="O12" s="81" t="s">
+      <c r="O12" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="47">
         <v>12.36</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="47">
         <v>8.36</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="45">
         <v>9.7899999999999991</v>
       </c>
-      <c r="E13" s="53">
+      <c r="E13" s="47">
         <v>7.46</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="47">
         <v>8.7100000000000009</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="82">
         <v>9.75</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="55">
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="49">
         <f t="shared" si="0"/>
         <v>56.43</v>
       </c>
-      <c r="O13" s="81" t="s">
+      <c r="O13" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="47">
         <v>7.68</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="47">
         <v>4.68</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="45">
         <v>4.4400000000000004</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="47">
         <v>3.82</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="47">
         <v>6.17</v>
       </c>
-      <c r="G14" s="92">
+      <c r="G14" s="83">
         <v>5.28</v>
       </c>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="55">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="49">
         <f t="shared" si="0"/>
         <v>32.07</v>
       </c>
-      <c r="O14" s="81" t="s">
+      <c r="O14" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="52">
+      <c r="B15" s="47">
         <v>2.42</v>
       </c>
-      <c r="C15" s="53">
-        <v>0</v>
-      </c>
-      <c r="D15" s="50">
+      <c r="C15" s="47">
+        <v>0</v>
+      </c>
+      <c r="D15" s="45">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E15" s="53">
-        <v>0</v>
-      </c>
-      <c r="F15" s="53">
+      <c r="E15" s="47">
+        <v>0</v>
+      </c>
+      <c r="F15" s="47">
         <v>1.37</v>
       </c>
-      <c r="G15" s="92">
-        <v>0</v>
-      </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="55">
+      <c r="G15" s="83">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="49">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
-      <c r="O15" s="81" t="s">
+      <c r="O15" s="73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="62" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="52">
         <f>SUM(B4:B15)</f>
         <v>186.79999999999998</v>
       </c>
-      <c r="C16" s="58">
+      <c r="C16" s="52">
         <f t="shared" ref="C16:M16" si="1">SUM(C4:C15)</f>
         <v>429.66</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="52">
         <f t="shared" si="1"/>
         <v>569.70999999999992</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="52">
         <f t="shared" si="1"/>
         <v>585.26300000000003</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="52">
         <f t="shared" si="1"/>
         <v>578.97000000000014</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="52">
         <f t="shared" si="1"/>
         <v>614.12000000000012</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="58">
+      <c r="K16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2145,28 +2128,27 @@
         <f>SUM(N4:N15)</f>
         <v>2964.5229999999992</v>
       </c>
-      <c r="O16" s="85"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="84" t="s">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="N17" s="83">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="N17" s="75">
         <f>SUM(B16:M16)</f>
         <v>2964.5230000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2182,154 +2164,154 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:16" s="46" customFormat="1">
-      <c r="A19" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="45" t="s">
+    <row r="19" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="45" t="s">
+      <c r="L19" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="45" t="s">
+      <c r="M19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="70" t="s">
+      <c r="O19" s="62" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="68" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="52">
-        <v>0</v>
-      </c>
-      <c r="C20" s="53">
+      <c r="B20" s="47">
+        <v>0</v>
+      </c>
+      <c r="C20" s="47">
         <v>191.94</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="45">
         <v>347.92</v>
       </c>
-      <c r="E20" s="53">
+      <c r="E20" s="47">
         <v>170.92</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="47">
         <v>135.02000000000001</v>
       </c>
-      <c r="G20" s="91">
+      <c r="G20" s="82">
         <v>128.07</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="55">
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="49">
         <f t="shared" ref="N20:N21" si="2">SUM(B20:M20)</f>
         <v>973.86999999999989</v>
       </c>
-      <c r="O20" s="71" t="s">
+      <c r="O20" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="66" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="52">
-        <v>0</v>
-      </c>
-      <c r="C21" s="53">
-        <v>0</v>
-      </c>
-      <c r="D21" s="50">
+      <c r="B21" s="47">
+        <v>0</v>
+      </c>
+      <c r="C21" s="47">
+        <v>0</v>
+      </c>
+      <c r="D21" s="45">
         <v>15.09</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="47">
         <v>17.43</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="47">
         <v>117.09</v>
       </c>
-      <c r="G21" s="91">
+      <c r="G21" s="82">
         <v>61</v>
       </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="55">
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="49">
         <f t="shared" si="2"/>
         <v>210.61</v>
       </c>
-      <c r="O21" s="71" t="s">
+      <c r="O21" s="63" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="67" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B22" s="47">
         <v>1.45</v>
       </c>
-      <c r="C22" s="53">
-        <v>0</v>
-      </c>
-      <c r="D22" s="50">
-        <v>0</v>
-      </c>
-      <c r="E22" s="53">
-        <v>0</v>
-      </c>
-      <c r="F22" s="53">
-        <v>0</v>
-      </c>
-      <c r="G22" s="91">
+      <c r="C22" s="47">
+        <v>0</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
+      <c r="E22" s="47">
+        <v>0</v>
+      </c>
+      <c r="F22" s="47">
+        <v>0</v>
+      </c>
+      <c r="G22" s="82">
         <v>4.21</v>
       </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="55">
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="49">
         <f>SUM(B22:M22)</f>
         <v>5.66</v>
       </c>
@@ -2337,35 +2319,35 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="67" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="52">
-        <v>0</v>
-      </c>
-      <c r="C23" s="53">
-        <v>0</v>
-      </c>
-      <c r="D23" s="50">
-        <v>0</v>
-      </c>
-      <c r="E23" s="53">
-        <v>0</v>
-      </c>
-      <c r="F23" s="53">
-        <v>0</v>
-      </c>
-      <c r="G23" s="91">
+      <c r="B23" s="47">
+        <v>0</v>
+      </c>
+      <c r="C23" s="47">
+        <v>0</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0</v>
+      </c>
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0</v>
+      </c>
+      <c r="G23" s="82">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="55">
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="49">
         <f>SUM(B23:M23)</f>
         <v>2.0699999999999998</v>
       </c>
@@ -2373,26 +2355,26 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="73.5">
-      <c r="A24" s="89" t="s">
+    <row r="24" spans="1:16" ht="73.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="52">
-        <v>0</v>
-      </c>
-      <c r="C24" s="52">
-        <v>0</v>
-      </c>
-      <c r="D24" s="52">
-        <v>0</v>
-      </c>
-      <c r="E24" s="52">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="93">
+      <c r="B24" s="47">
+        <v>0</v>
+      </c>
+      <c r="C24" s="47">
+        <v>0</v>
+      </c>
+      <c r="D24" s="47">
+        <v>0</v>
+      </c>
+      <c r="E24" s="47">
+        <v>0</v>
+      </c>
+      <c r="F24" s="47">
+        <v>0</v>
+      </c>
+      <c r="G24" s="84">
         <v>30.47</v>
       </c>
       <c r="H24" s="6"/>
@@ -2401,7 +2383,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="55">
+      <c r="N24" s="49">
         <f>SUM(B24:M24)</f>
         <v>30.47</v>
       </c>
@@ -2409,35 +2391,35 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="57.75" customHeight="1">
-      <c r="A25" s="65" t="s">
+    <row r="25" spans="1:16" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="47">
         <v>20.62</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="55">
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="49">
         <f>SUM(B25:M25)</f>
         <v>20.62</v>
       </c>
@@ -2445,177 +2427,149 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="47">
         <v>38.97</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="47">
         <v>73.91</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="45">
         <v>145.74</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="47">
         <v>120.05</v>
       </c>
-      <c r="F26" s="53">
+      <c r="F26" s="47">
         <v>137.99</v>
       </c>
-      <c r="G26" s="53">
-        <v>0</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="55">
+      <c r="G26" s="47">
+        <v>0</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="49">
         <f>SUM(B26:M26)</f>
         <v>516.66000000000008</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="90" t="s">
+      <c r="P26" s="81" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="52">
-        <v>0</v>
-      </c>
-      <c r="C27" s="53">
-        <v>0</v>
-      </c>
-      <c r="D27" s="50">
+      <c r="B27" s="47">
+        <v>0</v>
+      </c>
+      <c r="C27" s="47">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45">
         <v>34.200000000000003</v>
       </c>
-      <c r="E27" s="53">
-        <v>0</v>
-      </c>
-      <c r="F27" s="53">
-        <v>0</v>
-      </c>
-      <c r="G27" s="53">
-        <v>0</v>
-      </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="55">
+      <c r="E27" s="47">
+        <v>0</v>
+      </c>
+      <c r="F27" s="47">
+        <v>0</v>
+      </c>
+      <c r="G27" s="47">
+        <v>0</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="49">
         <f t="shared" ref="N27" si="3">SUM(B27:M27)</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="O27" s="71" t="s">
+      <c r="O27" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="P27" s="90" t="s">
+      <c r="P27" s="81" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="69" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="52">
-        <v>0</v>
-      </c>
-      <c r="C28" s="53">
-        <v>0</v>
-      </c>
-      <c r="D28" s="50">
+      <c r="B28" s="47">
+        <v>0</v>
+      </c>
+      <c r="C28" s="47">
+        <v>0</v>
+      </c>
+      <c r="D28" s="45">
         <v>3.85</v>
       </c>
-      <c r="E28" s="53">
-        <v>0</v>
-      </c>
-      <c r="F28" s="53">
-        <v>0</v>
-      </c>
-      <c r="G28" s="53">
-        <v>0</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="55">
+      <c r="E28" s="47">
+        <v>0</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0</v>
+      </c>
+      <c r="G28" s="47">
+        <v>0</v>
+      </c>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="49">
         <f>SUM(B28:M28)</f>
         <v>3.85</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="P28" s="90" t="s">
+      <c r="P28" s="81" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="88"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="88"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="97" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="79"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>99</v>
       </c>
@@ -2658,527 +2612,527 @@
       <c r="N33" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O33" s="82" t="s">
+      <c r="O33" s="74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="23" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="52">
-        <v>0</v>
-      </c>
-      <c r="C34" s="53">
-        <v>0</v>
-      </c>
-      <c r="D34" s="52">
-        <v>0</v>
-      </c>
-      <c r="E34" s="52">
-        <v>0</v>
-      </c>
-      <c r="F34" s="53">
-        <v>0</v>
-      </c>
-      <c r="G34" s="91">
+      <c r="B34" s="47">
+        <v>0</v>
+      </c>
+      <c r="C34" s="47">
+        <v>0</v>
+      </c>
+      <c r="D34" s="47">
+        <v>0</v>
+      </c>
+      <c r="E34" s="47">
+        <v>0</v>
+      </c>
+      <c r="F34" s="47">
+        <v>0</v>
+      </c>
+      <c r="G34" s="82">
         <v>0.82</v>
       </c>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="55">
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="49">
         <f t="shared" ref="N34:N46" si="4">SUM(B34:M34)</f>
         <v>0.82</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="52">
-        <v>0</v>
-      </c>
-      <c r="C35" s="52">
-        <v>0</v>
-      </c>
-      <c r="D35" s="52">
-        <v>0</v>
-      </c>
-      <c r="E35" s="52">
-        <v>0</v>
-      </c>
-      <c r="F35" s="52">
-        <v>0</v>
-      </c>
-      <c r="G35" s="53">
-        <v>0</v>
-      </c>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="55">
+      <c r="B35" s="47">
+        <v>0</v>
+      </c>
+      <c r="C35" s="47">
+        <v>0</v>
+      </c>
+      <c r="D35" s="47">
+        <v>0</v>
+      </c>
+      <c r="E35" s="47">
+        <v>0</v>
+      </c>
+      <c r="F35" s="47">
+        <v>0</v>
+      </c>
+      <c r="G35" s="47">
+        <v>0</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O35" s="72" t="s">
+      <c r="O35" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="52">
-        <v>0</v>
-      </c>
-      <c r="C36" s="52">
-        <v>0</v>
-      </c>
-      <c r="D36" s="52">
-        <v>0</v>
-      </c>
-      <c r="E36" s="52">
-        <v>0</v>
-      </c>
-      <c r="F36" s="52">
-        <v>0</v>
-      </c>
-      <c r="G36" s="91">
+      <c r="B36" s="47">
+        <v>0</v>
+      </c>
+      <c r="C36" s="47">
+        <v>0</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <v>0</v>
+      </c>
+      <c r="F36" s="47">
+        <v>0</v>
+      </c>
+      <c r="G36" s="82">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="55">
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="49">
         <f t="shared" si="4"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="O36" s="72" t="s">
+      <c r="O36" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="23" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="52">
-        <v>0</v>
-      </c>
-      <c r="C37" s="52">
-        <v>0</v>
-      </c>
-      <c r="D37" s="52">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52">
-        <v>0</v>
-      </c>
-      <c r="F37" s="52">
-        <v>0</v>
-      </c>
-      <c r="G37" s="53">
+      <c r="B37" s="47">
+        <v>0</v>
+      </c>
+      <c r="C37" s="47">
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47">
+        <v>0</v>
+      </c>
+      <c r="G37" s="47">
         <v>6.66</v>
       </c>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="55">
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="49">
         <f t="shared" si="4"/>
         <v>6.66</v>
       </c>
-      <c r="O37" s="72" t="s">
+      <c r="O37" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="17" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="52">
-        <v>0</v>
-      </c>
-      <c r="C38" s="52">
-        <v>0</v>
-      </c>
-      <c r="D38" s="52">
-        <v>0</v>
-      </c>
-      <c r="E38" s="52">
-        <v>0</v>
-      </c>
-      <c r="F38" s="52">
-        <v>0</v>
-      </c>
-      <c r="G38" s="91">
+      <c r="B38" s="47">
+        <v>0</v>
+      </c>
+      <c r="C38" s="47">
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <v>0</v>
+      </c>
+      <c r="E38" s="47">
+        <v>0</v>
+      </c>
+      <c r="F38" s="47">
+        <v>0</v>
+      </c>
+      <c r="G38" s="82">
         <v>5.51</v>
       </c>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="53"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="55">
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="49">
         <f t="shared" si="4"/>
         <v>5.51</v>
       </c>
-      <c r="O38" s="72" t="s">
+      <c r="O38" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="52">
-        <v>0</v>
-      </c>
-      <c r="C39" s="52">
-        <v>0</v>
-      </c>
-      <c r="D39" s="52">
-        <v>0</v>
-      </c>
-      <c r="E39" s="52">
-        <v>0</v>
-      </c>
-      <c r="F39" s="52">
-        <v>0</v>
-      </c>
-      <c r="G39" s="91">
+      <c r="B39" s="47">
+        <v>0</v>
+      </c>
+      <c r="C39" s="47">
+        <v>0</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0</v>
+      </c>
+      <c r="E39" s="47">
+        <v>0</v>
+      </c>
+      <c r="F39" s="47">
+        <v>0</v>
+      </c>
+      <c r="G39" s="82">
         <v>2.54</v>
       </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="53"/>
-      <c r="N39" s="55">
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="49">
         <f t="shared" si="4"/>
         <v>2.54</v>
       </c>
-      <c r="O39" s="72" t="s">
+      <c r="O39" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="52">
-        <v>0</v>
-      </c>
-      <c r="C40" s="52">
-        <v>0</v>
-      </c>
-      <c r="D40" s="52">
-        <v>0</v>
-      </c>
-      <c r="E40" s="52">
-        <v>0</v>
-      </c>
-      <c r="F40" s="52">
-        <v>0</v>
-      </c>
-      <c r="G40" s="53">
-        <v>0</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="55">
+      <c r="B40" s="47">
+        <v>0</v>
+      </c>
+      <c r="C40" s="47">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="47">
+        <v>0</v>
+      </c>
+      <c r="F40" s="47">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O40" s="72" t="s">
+      <c r="O40" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="52">
-        <v>0</v>
-      </c>
-      <c r="C41" s="52">
-        <v>0</v>
-      </c>
-      <c r="D41" s="52">
-        <v>0</v>
-      </c>
-      <c r="E41" s="52">
-        <v>0</v>
-      </c>
-      <c r="F41" s="52">
-        <v>0</v>
-      </c>
-      <c r="G41" s="91">
+      <c r="B41" s="47">
+        <v>0</v>
+      </c>
+      <c r="C41" s="47">
+        <v>0</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <v>0</v>
+      </c>
+      <c r="F41" s="47">
+        <v>0</v>
+      </c>
+      <c r="G41" s="82">
         <v>6.46</v>
       </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="55">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="49">
         <f t="shared" si="4"/>
         <v>6.46</v>
       </c>
-      <c r="O41" s="72" t="s">
+      <c r="O41" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="25" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="52">
-        <v>0</v>
-      </c>
-      <c r="C42" s="52">
-        <v>0</v>
-      </c>
-      <c r="D42" s="52">
-        <v>0</v>
-      </c>
-      <c r="E42" s="52">
-        <v>0</v>
-      </c>
-      <c r="F42" s="52">
-        <v>0</v>
-      </c>
-      <c r="G42" s="53">
-        <v>0</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="55">
+      <c r="B42" s="47">
+        <v>0</v>
+      </c>
+      <c r="C42" s="47">
+        <v>0</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0</v>
+      </c>
+      <c r="E42" s="47">
+        <v>0</v>
+      </c>
+      <c r="F42" s="47">
+        <v>0</v>
+      </c>
+      <c r="G42" s="47">
+        <v>0</v>
+      </c>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O42" s="72" t="s">
+      <c r="O42" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="25" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="52">
-        <v>0</v>
-      </c>
-      <c r="C43" s="52">
-        <v>0</v>
-      </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
-      <c r="E43" s="52">
-        <v>0</v>
-      </c>
-      <c r="F43" s="52">
-        <v>0</v>
-      </c>
-      <c r="G43" s="53">
-        <v>0</v>
-      </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="55">
+      <c r="B43" s="47">
+        <v>0</v>
+      </c>
+      <c r="C43" s="47">
+        <v>0</v>
+      </c>
+      <c r="D43" s="47">
+        <v>0</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0</v>
+      </c>
+      <c r="F43" s="47">
+        <v>0</v>
+      </c>
+      <c r="G43" s="47">
+        <v>0</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O43" s="72" t="s">
+      <c r="O43" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="52">
-        <v>0</v>
-      </c>
-      <c r="C44" s="52">
-        <v>0</v>
-      </c>
-      <c r="D44" s="52">
-        <v>0</v>
-      </c>
-      <c r="E44" s="52">
-        <v>0</v>
-      </c>
-      <c r="F44" s="52">
-        <v>0</v>
-      </c>
-      <c r="G44" s="91">
+      <c r="B44" s="47">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47">
+        <v>0</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0</v>
+      </c>
+      <c r="E44" s="47">
+        <v>0</v>
+      </c>
+      <c r="F44" s="47">
+        <v>0</v>
+      </c>
+      <c r="G44" s="82">
         <v>1.28</v>
       </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="55">
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="49">
         <f t="shared" si="4"/>
         <v>1.28</v>
       </c>
-      <c r="O44" s="72" t="s">
+      <c r="O44" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="52">
-        <v>0</v>
-      </c>
-      <c r="C45" s="52">
-        <v>0</v>
-      </c>
-      <c r="D45" s="52">
-        <v>0</v>
-      </c>
-      <c r="E45" s="52">
-        <v>0</v>
-      </c>
-      <c r="F45" s="52">
-        <v>0</v>
-      </c>
-      <c r="G45" s="53">
-        <v>0</v>
-      </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="55">
+      <c r="B45" s="47">
+        <v>0</v>
+      </c>
+      <c r="C45" s="47">
+        <v>0</v>
+      </c>
+      <c r="D45" s="47">
+        <v>0</v>
+      </c>
+      <c r="E45" s="47">
+        <v>0</v>
+      </c>
+      <c r="F45" s="47">
+        <v>0</v>
+      </c>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O45" s="72" t="s">
+      <c r="O45" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="52">
-        <v>0</v>
-      </c>
-      <c r="C46" s="52">
-        <v>0</v>
-      </c>
-      <c r="D46" s="52">
-        <v>0</v>
-      </c>
-      <c r="E46" s="52">
-        <v>0</v>
-      </c>
-      <c r="F46" s="52">
-        <v>0</v>
-      </c>
-      <c r="G46" s="53">
-        <v>0</v>
-      </c>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="55">
+      <c r="B46" s="47">
+        <v>0</v>
+      </c>
+      <c r="C46" s="47">
+        <v>0</v>
+      </c>
+      <c r="D46" s="47">
+        <v>0</v>
+      </c>
+      <c r="E46" s="47">
+        <v>0</v>
+      </c>
+      <c r="F46" s="47">
+        <v>0</v>
+      </c>
+      <c r="G46" s="47">
+        <v>0</v>
+      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O46" s="72" t="s">
+      <c r="O46" s="64" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="62" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="58">
+      <c r="B47" s="52">
         <f t="shared" ref="B47:N47" si="5">SUM(B34:B46)</f>
         <v>0</v>
       </c>
-      <c r="C47" s="58">
+      <c r="C47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D47" s="58">
+      <c r="D47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E47" s="58">
+      <c r="E47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F47" s="58">
+      <c r="F47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G47" s="58">
+      <c r="G47" s="52">
         <f t="shared" si="5"/>
         <v>25.740000000000002</v>
       </c>
-      <c r="H47" s="58">
+      <c r="H47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I47" s="58">
+      <c r="I47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J47" s="58">
+      <c r="J47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K47" s="58">
+      <c r="K47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L47" s="58">
+      <c r="L47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M47" s="58">
+      <c r="M47" s="52">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -3188,8 +3142,8 @@
       </c>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="87" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="78" t="s">
         <v>129</v>
       </c>
       <c r="B48" s="6"/>
@@ -3204,7 +3158,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="86">
+      <c r="N48" s="77">
         <f>SUM(B47:M47)</f>
         <v>25.740000000000002</v>
       </c>
@@ -3222,7 +3176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
@@ -3233,121 +3187,121 @@
       <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.75" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.77734375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.21875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="38.25">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:25" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="47"/>
-    </row>
-    <row r="2" spans="1:25" ht="55.5">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="42"/>
+    </row>
+    <row r="2" spans="1:25" ht="84.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="38" t="s">
         <v>35</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -3363,825 +3317,825 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="27.75">
+    <row r="3" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <v>1717.51</v>
       </c>
-      <c r="C3" s="41">
-        <v>0</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
         <v>95.29</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="36">
         <v>20.399999999999999</v>
       </c>
-      <c r="F3" s="41">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <v>0</v>
-      </c>
-      <c r="H3" s="41">
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
         <f>SUM(E3:G3)</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="I3" s="41">
-        <v>0</v>
-      </c>
-      <c r="J3" s="41">
-        <v>0</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0</v>
-      </c>
-      <c r="L3" s="41">
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36">
         <f>SUM(I3:K3)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="36">
         <v>69.25</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="36">
         <v>52.76</v>
       </c>
-      <c r="O3" s="41">
-        <v>0</v>
-      </c>
-      <c r="P3" s="41">
+      <c r="O3" s="36">
+        <v>0</v>
+      </c>
+      <c r="P3" s="36">
         <f>SUM(M3:N3)</f>
         <v>122.00999999999999</v>
       </c>
-      <c r="Q3" s="41">
-        <v>0</v>
-      </c>
-      <c r="R3" s="41">
-        <v>0</v>
-      </c>
-      <c r="S3" s="41">
+      <c r="Q3" s="36">
+        <v>0</v>
+      </c>
+      <c r="R3" s="36">
+        <v>0</v>
+      </c>
+      <c r="S3" s="36">
         <v>230.5</v>
       </c>
-      <c r="T3" s="41">
+      <c r="T3" s="36">
         <v>318.86</v>
       </c>
-      <c r="U3" s="41">
+      <c r="U3" s="36">
         <f>SUM(Q3:T3)</f>
         <v>549.36</v>
       </c>
-      <c r="V3" s="41">
-        <v>0</v>
-      </c>
-      <c r="W3" s="41">
+      <c r="V3" s="36">
+        <v>0</v>
+      </c>
+      <c r="W3" s="36">
         <v>7.3</v>
       </c>
-      <c r="X3" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="60">
+      <c r="X3" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="36">
         <f>SUM(V3:X3)</f>
         <v>7.3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="27.75">
+    <row r="4" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="36">
         <v>1010.2</v>
       </c>
-      <c r="C4" s="41">
-        <v>0</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
         <v>80.34</v>
       </c>
-      <c r="E4" s="41">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41">
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
         <f t="shared" ref="H4:H14" si="0">SUM(E4:G4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="41">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41">
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0</v>
+      </c>
+      <c r="K4" s="36">
+        <v>0</v>
+      </c>
+      <c r="L4" s="36">
         <f t="shared" ref="L4:L14" si="1">SUM(I4:K4)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="36">
         <v>109.64</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="36">
         <v>31.76</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="36">
         <v>32.65</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="36">
         <f>SUM(M4:O4)</f>
         <v>174.05</v>
       </c>
-      <c r="Q4" s="41">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41">
-        <v>0</v>
-      </c>
-      <c r="S4" s="41">
+      <c r="Q4" s="36">
+        <v>0</v>
+      </c>
+      <c r="R4" s="36">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36">
         <v>160.78</v>
       </c>
-      <c r="T4" s="41">
+      <c r="T4" s="36">
         <v>268.77199999999999</v>
       </c>
-      <c r="U4" s="41">
+      <c r="U4" s="36">
         <f t="shared" ref="U4:U14" si="2">SUM(Q4:T4)</f>
         <v>429.55200000000002</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="36">
         <v>24.03</v>
       </c>
-      <c r="W4" s="41">
-        <v>0</v>
-      </c>
-      <c r="X4" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="60">
+      <c r="W4" s="36">
+        <v>0</v>
+      </c>
+      <c r="X4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="36">
         <f t="shared" ref="Y4:Y14" si="3">SUM(V4:X4)</f>
         <v>24.03</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="11" customFormat="1" ht="27.75">
+    <row r="5" spans="1:25" s="11" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <v>1103.9100000000001</v>
       </c>
-      <c r="C5" s="41">
-        <v>0</v>
-      </c>
-      <c r="D5" s="41">
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
         <v>94.68</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="36">
         <v>74.27</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="36">
         <v>23.93</v>
       </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-      <c r="H5" s="41">
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>98.199999999999989</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="36">
         <v>16.649999999999999</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="36">
         <v>24.45</v>
       </c>
-      <c r="K5" s="41">
-        <v>0</v>
-      </c>
-      <c r="L5" s="41">
+      <c r="K5" s="36">
+        <v>0</v>
+      </c>
+      <c r="L5" s="36">
         <f t="shared" si="1"/>
         <v>41.099999999999994</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="36">
         <v>63.12</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="36">
         <v>86.87</v>
       </c>
-      <c r="O5" s="41">
-        <v>0</v>
-      </c>
-      <c r="P5" s="41">
+      <c r="O5" s="36">
+        <v>0</v>
+      </c>
+      <c r="P5" s="36">
         <f t="shared" ref="P5:P14" si="4">SUM(M5:N5)</f>
         <v>149.99</v>
       </c>
-      <c r="Q5" s="41">
-        <v>0</v>
-      </c>
-      <c r="R5" s="41">
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
+      <c r="Q5" s="36">
+        <v>0</v>
+      </c>
+      <c r="R5" s="36">
+        <v>0</v>
+      </c>
+      <c r="S5" s="36">
         <v>78.75</v>
       </c>
-      <c r="T5" s="41">
+      <c r="T5" s="36">
         <v>591.6</v>
       </c>
-      <c r="U5" s="41">
+      <c r="U5" s="36">
         <f t="shared" si="2"/>
         <v>670.35</v>
       </c>
-      <c r="V5" s="41">
-        <v>0</v>
-      </c>
-      <c r="W5" s="41">
+      <c r="V5" s="36">
+        <v>0</v>
+      </c>
+      <c r="W5" s="36">
         <v>91.03</v>
       </c>
-      <c r="X5" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="60">
+      <c r="X5" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="36">
         <f t="shared" si="3"/>
         <v>91.03</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="22" customFormat="1" ht="27.75">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:25" s="13" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <v>1391.1</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>297.69</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>85.52</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>18.16</v>
       </c>
-      <c r="F6" s="41">
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
         <v>5.34</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
-      <c r="I6" s="41">
-        <v>0</v>
-      </c>
-      <c r="J6" s="41">
-        <v>0</v>
-      </c>
-      <c r="K6" s="41">
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36">
         <v>11.66</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="36">
         <f t="shared" si="1"/>
         <v>11.66</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="36">
         <v>9.61</v>
       </c>
-      <c r="N6" s="41">
-        <v>0</v>
-      </c>
-      <c r="O6" s="41">
+      <c r="N6" s="36">
+        <v>0</v>
+      </c>
+      <c r="O6" s="36">
         <v>14.34</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="36">
         <f>SUM(M6:O6)</f>
         <v>23.95</v>
       </c>
-      <c r="Q6" s="41">
-        <v>0</v>
-      </c>
-      <c r="R6" s="41">
-        <v>0</v>
-      </c>
-      <c r="S6" s="41">
-        <v>0</v>
-      </c>
-      <c r="T6" s="41">
+      <c r="Q6" s="36">
+        <v>0</v>
+      </c>
+      <c r="R6" s="36">
+        <v>0</v>
+      </c>
+      <c r="S6" s="36">
+        <v>0</v>
+      </c>
+      <c r="T6" s="36">
         <v>635.23</v>
       </c>
-      <c r="U6" s="41">
+      <c r="U6" s="36">
         <f t="shared" si="2"/>
         <v>635.23</v>
       </c>
-      <c r="V6" s="41">
-        <v>0</v>
-      </c>
-      <c r="W6" s="41">
+      <c r="V6" s="36">
+        <v>0</v>
+      </c>
+      <c r="W6" s="36">
         <v>11.58</v>
       </c>
-      <c r="X6" s="41">
+      <c r="X6" s="36">
         <v>6.63</v>
       </c>
-      <c r="Y6" s="60">
+      <c r="Y6" s="36">
         <f t="shared" si="3"/>
         <v>18.21</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="27.75">
+    <row r="7" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>1249.6300000000001</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="36">
         <v>575.74</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>104.02</v>
       </c>
-      <c r="E7" s="41">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0</v>
-      </c>
-      <c r="H7" s="41">
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="41">
-        <v>0</v>
-      </c>
-      <c r="J7" s="41">
-        <v>0</v>
-      </c>
-      <c r="K7" s="41">
-        <v>0</v>
-      </c>
-      <c r="L7" s="41">
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="41">
-        <v>0</v>
-      </c>
-      <c r="N7" s="41">
-        <v>0</v>
-      </c>
-      <c r="O7" s="41">
-        <v>0</v>
-      </c>
-      <c r="P7" s="41">
+      <c r="M7" s="36">
+        <v>0</v>
+      </c>
+      <c r="N7" s="36">
+        <v>0</v>
+      </c>
+      <c r="O7" s="36">
+        <v>0</v>
+      </c>
+      <c r="P7" s="36">
         <f>SUM(M7:O7)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="41">
-        <v>0</v>
-      </c>
-      <c r="R7" s="41">
+      <c r="Q7" s="36">
+        <v>0</v>
+      </c>
+      <c r="R7" s="36">
         <v>123.25</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="36">
         <v>107.86</v>
       </c>
-      <c r="T7" s="41">
+      <c r="T7" s="36">
         <v>560.61</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="36">
         <f t="shared" si="2"/>
         <v>791.72</v>
       </c>
-      <c r="V7" s="41">
-        <v>0</v>
-      </c>
-      <c r="W7" s="41">
-        <v>0</v>
-      </c>
-      <c r="X7" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="60">
+      <c r="V7" s="36">
+        <v>0</v>
+      </c>
+      <c r="W7" s="36">
+        <v>0</v>
+      </c>
+      <c r="X7" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="27.75">
+    <row r="8" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <v>1411.08</v>
       </c>
-      <c r="C8" s="41">
-        <v>0</v>
-      </c>
-      <c r="D8" s="41">
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
         <v>14.36</v>
       </c>
-      <c r="E8" s="41">
-        <v>0</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="41">
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="41">
-        <v>0</v>
-      </c>
-      <c r="J8" s="41">
-        <v>0</v>
-      </c>
-      <c r="K8" s="41">
-        <v>0</v>
-      </c>
-      <c r="L8" s="41">
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M8" s="41">
-        <v>0</v>
-      </c>
-      <c r="N8" s="41">
-        <v>0</v>
-      </c>
-      <c r="O8" s="41">
-        <v>0</v>
-      </c>
-      <c r="P8" s="41">
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8" s="36">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36">
+        <v>0</v>
+      </c>
+      <c r="P8" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="36">
         <v>18.04</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="36">
         <v>548.33000000000004</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="36">
         <v>106.86</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="36">
         <v>613.21</v>
       </c>
-      <c r="U8" s="41">
+      <c r="U8" s="36">
         <f t="shared" si="2"/>
         <v>1286.44</v>
       </c>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60">
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="27.75">
+    <row r="9" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41">
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60">
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="27.75">
+    <row r="10" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="41">
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="41">
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41">
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41">
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60">
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="27.75">
+    <row r="11" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41">
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60">
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="27.75">
+    <row r="12" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41">
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60">
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="27.75">
+    <row r="13" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41">
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60">
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="27.75">
+    <row r="14" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41">
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41">
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60">
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="14" customFormat="1" ht="27.75">
+    <row r="15" spans="1:25" s="13" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="36">
         <f>SUM(B3:B14)</f>
         <v>7883.4299999999994</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="36">
         <f t="shared" ref="C15:R15" si="5">SUM(C3:C14)</f>
         <v>873.43000000000006</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="36">
         <f t="shared" si="5"/>
         <v>474.21</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="36">
         <f t="shared" si="5"/>
         <v>112.82999999999998</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="36">
         <f t="shared" si="5"/>
         <v>23.93</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="36">
         <f t="shared" si="5"/>
         <v>5.34</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="36">
         <f t="shared" si="5"/>
         <v>142.1</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="36">
         <f t="shared" si="5"/>
         <v>16.649999999999999</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="36">
         <f t="shared" si="5"/>
         <v>24.45</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="36">
         <f t="shared" si="5"/>
         <v>11.66</v>
       </c>
-      <c r="L15" s="60">
+      <c r="L15" s="36">
         <f t="shared" si="5"/>
         <v>52.759999999999991</v>
       </c>
-      <c r="M15" s="60">
+      <c r="M15" s="36">
         <f t="shared" si="5"/>
         <v>251.62</v>
       </c>
-      <c r="N15" s="60">
+      <c r="N15" s="36">
         <f t="shared" si="5"/>
         <v>171.39</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="36">
         <f t="shared" si="5"/>
         <v>46.989999999999995</v>
       </c>
-      <c r="P15" s="60">
+      <c r="P15" s="36">
         <f t="shared" si="5"/>
         <v>470</v>
       </c>
-      <c r="Q15" s="60">
+      <c r="Q15" s="36">
         <f t="shared" si="5"/>
         <v>18.04</v>
       </c>
-      <c r="R15" s="60">
+      <c r="R15" s="36">
         <f t="shared" si="5"/>
         <v>671.58</v>
       </c>
@@ -4214,81 +4168,81 @@
         <v>140.57</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="27.75">
+    <row r="17" spans="1:25" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="78" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="80" t="s">
+      <c r="J17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K17" s="78" t="s">
+      <c r="K17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="80" t="s">
+      <c r="L17" s="18"/>
+      <c r="M17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="N17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="O17" s="78" t="s">
+      <c r="O17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="78" t="s">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="R17" s="80" t="s">
+      <c r="R17" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="S17" s="78" t="s">
+      <c r="S17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="T17" s="78" t="s">
+      <c r="T17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="U17" s="79"/>
-      <c r="V17" s="78" t="s">
+      <c r="U17" s="71"/>
+      <c r="V17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="W17" s="78" t="s">
+      <c r="W17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="X17" s="78" t="s">
+      <c r="X17" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="Y17" s="27"/>
-    </row>
-    <row r="18" spans="1:25" ht="21">
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="44"/>
+      <c r="Y17" s="18"/>
+    </row>
+    <row r="18" spans="1:25" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4302,7 +4256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -4310,740 +4264,740 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75">
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="68" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75">
-      <c r="A2" s="29">
+    <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>45689</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="26">
         <v>29.38</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="26">
         <v>1.17</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="26">
         <f>SUM(C2:D2)</f>
         <v>30.549999999999997</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75">
-      <c r="A3" s="29">
+    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>45690</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="31">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
         <f>SUM(C3:D3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29">
         <f>SUM(C2:C3)</f>
         <v>29.38</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <f>SUM(D2:D3)</f>
         <v>1.17</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="29">
         <f>SUM(E2:E3)</f>
         <v>30.549999999999997</v>
       </c>
-      <c r="F4" s="77"/>
-    </row>
-    <row r="5" spans="1:6" ht="27.75">
-      <c r="A5" s="29">
+      <c r="F4" s="69"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>45691</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>30.62</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="26">
         <v>1.77</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="26">
         <f>SUM(C5:D5)</f>
         <v>32.39</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.75">
-      <c r="A6" s="29">
+    <row r="6" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>45692</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
         <f t="shared" ref="E6:E33" si="0">SUM(C6:D6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.75">
-      <c r="A7" s="29">
+    <row r="7" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
         <v>45693</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="31">
-        <v>0</v>
-      </c>
-      <c r="D7" s="31">
-        <v>0</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27.75">
-      <c r="A8" s="29">
+    <row r="8" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>45694</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="31">
-        <v>0</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.75">
-      <c r="A9" s="29">
+    <row r="9" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>45695</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75">
-      <c r="A10" s="29">
+    <row r="10" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>45696</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.75">
-      <c r="A11" s="29">
+    <row r="11" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>45697</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="31">
-        <v>0</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="78" t="s">
+      <c r="F11" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29">
         <f>SUM(C5:C11)</f>
         <v>30.62</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="29">
         <f t="shared" ref="D12:E12" si="1">SUM(D5:D11)</f>
         <v>1.77</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="29">
         <f t="shared" si="1"/>
         <v>32.39</v>
       </c>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="1:6" ht="27.75">
-      <c r="A13" s="29">
+      <c r="F12" s="69"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>45698</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.75">
-      <c r="A14" s="29">
+    <row r="14" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>45699</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="31">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27.75">
-      <c r="A15" s="29">
+    <row r="15" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>45700</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="31">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27.75">
-      <c r="A16" s="29">
+    <row r="16" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>45701</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="F16" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27.75">
-      <c r="A17" s="29">
+    <row r="17" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>45702</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27.75">
-      <c r="A18" s="29">
+    <row r="18" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>45703</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27.75">
-      <c r="A19" s="29">
+    <row r="19" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>45704</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="31">
-        <v>0</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="21">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29">
         <f>SUM(C15:C19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="29">
         <f>SUM(D15:D19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="29">
         <f>SUM(E15:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="77"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.75">
-      <c r="A21" s="29">
+      <c r="F20" s="69"/>
+    </row>
+    <row r="21" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>45705</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="31">
-        <v>0</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="78" t="s">
+      <c r="F21" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27.75">
-      <c r="A22" s="29">
+    <row r="22" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>45706</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="31">
-        <v>0</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="78" t="s">
+      <c r="F22" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27.75">
-      <c r="A23" s="29">
+    <row r="23" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
         <v>45707</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="31">
-        <v>0</v>
-      </c>
-      <c r="D23" s="31">
-        <v>0</v>
-      </c>
-      <c r="E23" s="31">
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="78" t="s">
+      <c r="F23" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27.75">
-      <c r="A24" s="29">
+    <row r="24" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>45708</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="31">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27.75">
-      <c r="A25" s="29">
+    <row r="25" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>45709</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="31">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="78" t="s">
+      <c r="F25" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27.75">
-      <c r="A26" s="29">
+    <row r="26" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>45710</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="31">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.75">
-      <c r="A27" s="29">
+    <row r="27" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>45711</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="31">
-        <v>0</v>
-      </c>
-      <c r="D27" s="31">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31">
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="21">
-      <c r="A28" s="33" t="s">
+    <row r="28" spans="1:7" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34">
+      <c r="B28" s="28"/>
+      <c r="C28" s="29">
         <f t="shared" ref="C28" si="2">SUM(C21:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="29">
         <f>SUM(D23:D27)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="29">
         <f>SUM(E23:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="77"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.75">
-      <c r="A29" s="29">
+      <c r="F28" s="69"/>
+    </row>
+    <row r="29" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
         <v>45712</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="31">
-        <v>0</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31">
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
+      <c r="D29" s="26">
+        <v>0</v>
+      </c>
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27.75">
-      <c r="A30" s="29">
+    <row r="30" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>45713</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="31">
-        <v>0</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0</v>
-      </c>
-      <c r="E30" s="31">
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
+      <c r="D30" s="26">
+        <v>0</v>
+      </c>
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="70" t="s">
         <v>133</v>
       </c>
       <c r="G30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27.75">
-      <c r="A31" s="29">
+    <row r="31" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
         <v>45714</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="31">
-        <v>0</v>
-      </c>
-      <c r="D31" s="31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="31">
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
+      <c r="D31" s="26">
+        <v>0</v>
+      </c>
+      <c r="E31" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27.75">
-      <c r="A32" s="29">
+    <row r="32" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>45715</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="31">
-        <v>0</v>
-      </c>
-      <c r="D32" s="31">
-        <v>0</v>
-      </c>
-      <c r="E32" s="31">
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
+      <c r="D32" s="26">
+        <v>0</v>
+      </c>
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="27.75">
-      <c r="A33" s="29">
+    <row r="33" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>45716</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="31">
-        <v>0</v>
-      </c>
-      <c r="D33" s="31">
-        <v>0</v>
-      </c>
-      <c r="E33" s="31">
+      <c r="C33" s="26">
+        <v>0</v>
+      </c>
+      <c r="D33" s="26">
+        <v>0</v>
+      </c>
+      <c r="E33" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="36">
+      <c r="B34" s="28"/>
+      <c r="C34" s="31">
         <f>SUM(C21:C33)</f>
         <v>0</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="29">
         <f>SUM(D29:D33)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="29">
         <f>SUM(E29:E33)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="77"/>
-    </row>
-    <row r="35" spans="1:6" ht="21">
-      <c r="A35" s="37" t="s">
+      <c r="F34" s="69"/>
+    </row>
+    <row r="35" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38">
+      <c r="B35" s="32"/>
+      <c r="C35" s="33">
         <f>SUM(C4+C12+C20+C28+C34)</f>
         <v>60</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="33">
         <f>SUM(D4+D12+D20+D28+D34)</f>
         <v>2.94</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="33">
         <f>SUM(E4+E12+E20+E28+E34)</f>
         <v>62.94</v>
       </c>
-      <c r="F35" s="77"/>
+      <c r="F35" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5053,7 +5007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -5061,784 +5015,784 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="35" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75">
-      <c r="A2" s="29">
+    <row r="2" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
         <v>45658</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="31">
-        <v>0</v>
-      </c>
-      <c r="D2" s="31">
-        <v>0</v>
-      </c>
-      <c r="E2" s="31">
-        <v>0</v>
-      </c>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.75">
-      <c r="A3" s="29">
+    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>45659</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="31">
-        <v>0</v>
-      </c>
-      <c r="D3" s="31">
-        <v>0</v>
-      </c>
-      <c r="E3" s="31">
-        <v>0</v>
-      </c>
-      <c r="F3" s="78" t="s">
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27.75">
-      <c r="A4" s="29">
+    <row r="4" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>45660</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="31">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0</v>
-      </c>
-      <c r="F4" s="78" t="s">
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27.75">
-      <c r="A5" s="29">
+    <row r="5" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>45661</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="31">
-        <v>0</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0</v>
-      </c>
-      <c r="E5" s="31">
-        <v>0</v>
-      </c>
-      <c r="F5" s="78" t="s">
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27.75">
-      <c r="A6" s="29">
+    <row r="6" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>45662</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="78" t="s">
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34">
+      <c r="B7" s="28"/>
+      <c r="C7" s="29">
         <f>SUM(C2:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <f>SUM(D2:D6)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="29">
         <f>SUM(E2:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="77"/>
-    </row>
-    <row r="8" spans="1:6" ht="27.75">
-      <c r="A8" s="29">
+      <c r="F7" s="69"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
         <v>45663</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="31">
-        <v>0</v>
-      </c>
-      <c r="D8" s="31">
-        <v>0</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0</v>
-      </c>
-      <c r="F8" s="78" t="s">
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.75">
-      <c r="A9" s="29">
+    <row r="9" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>45664</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="31">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0</v>
-      </c>
-      <c r="F9" s="78" t="s">
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="27.75">
-      <c r="A10" s="29">
+    <row r="10" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>45665</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="31">
-        <v>0</v>
-      </c>
-      <c r="E10" s="31">
-        <v>0</v>
-      </c>
-      <c r="F10" s="78" t="s">
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="27.75">
-      <c r="A11" s="29">
+    <row r="11" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>45666</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="31">
-        <v>0</v>
-      </c>
-      <c r="D11" s="31">
-        <v>0</v>
-      </c>
-      <c r="E11" s="31">
-        <v>0</v>
-      </c>
-      <c r="F11" s="78" t="s">
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="27.75">
-      <c r="A12" s="29">
+    <row r="12" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>45667</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="31">
-        <v>0</v>
-      </c>
-      <c r="D12" s="31">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
-        <v>0</v>
-      </c>
-      <c r="F12" s="78" t="s">
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27.75">
-      <c r="A13" s="29">
+    <row r="13" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>45668</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="31">
-        <v>0</v>
-      </c>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="78" t="s">
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27.75">
-      <c r="A14" s="29">
+    <row r="14" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>45669</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="31">
-        <v>0</v>
-      </c>
-      <c r="D14" s="31">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
-        <v>0</v>
-      </c>
-      <c r="F14" s="78" t="s">
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29">
         <f>SUM(C10:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="29">
         <f>SUM(D10:D14)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="29">
         <f>SUM(E10:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="77"/>
-    </row>
-    <row r="16" spans="1:6" ht="27.75">
-      <c r="A16" s="29">
+      <c r="F15" s="69"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>45670</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="78" t="s">
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27.75">
-      <c r="A17" s="29">
+    <row r="17" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>45671</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="31">
-        <v>0</v>
-      </c>
-      <c r="D17" s="31">
-        <v>0</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="78" t="s">
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="27.75">
-      <c r="A18" s="29">
+    <row r="18" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>45672</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="31">
-        <v>0</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0</v>
-      </c>
-      <c r="F18" s="78" t="s">
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="27.75">
-      <c r="A19" s="29">
+    <row r="19" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>45673</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="31">
-        <v>0</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="78" t="s">
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="27.75">
-      <c r="A20" s="29">
+    <row r="20" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
         <v>45674</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="31">
-        <v>0</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0</v>
-      </c>
-      <c r="E20" s="31">
-        <v>0</v>
-      </c>
-      <c r="F20" s="78" t="s">
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.75">
-      <c r="A21" s="29">
+    <row r="21" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
         <v>45675</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="31">
-        <v>0</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0</v>
-      </c>
-      <c r="F21" s="78" t="s">
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="27.75">
-      <c r="A22" s="29">
+    <row r="22" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
         <v>45676</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="31">
-        <v>0</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0</v>
-      </c>
-      <c r="E22" s="31">
-        <v>0</v>
-      </c>
-      <c r="F22" s="78" t="s">
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21">
-      <c r="A23" s="33" t="s">
+    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34">
+      <c r="B23" s="28"/>
+      <c r="C23" s="29">
         <f>SUM(C18:C22)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="29">
         <f>SUM(D18:D22)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="29">
         <f>SUM(E18:E22)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="77"/>
-    </row>
-    <row r="24" spans="1:6" ht="27.75">
-      <c r="A24" s="29">
+      <c r="F23" s="69"/>
+    </row>
+    <row r="24" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>45677</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="31">
-        <v>0</v>
-      </c>
-      <c r="D24" s="31">
-        <v>0</v>
-      </c>
-      <c r="E24" s="31">
-        <v>0</v>
-      </c>
-      <c r="F24" s="78" t="s">
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="27.75">
-      <c r="A25" s="29">
+    <row r="25" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
         <v>45678</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="31">
-        <v>0</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0</v>
-      </c>
-      <c r="E25" s="31">
-        <v>0</v>
-      </c>
-      <c r="F25" s="78" t="s">
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="27.75">
-      <c r="A26" s="29">
+    <row r="26" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
         <v>45679</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="31">
-        <v>0</v>
-      </c>
-      <c r="D26" s="31">
-        <v>0</v>
-      </c>
-      <c r="E26" s="31">
-        <v>0</v>
-      </c>
-      <c r="F26" s="78" t="s">
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="27.75">
-      <c r="A27" s="29">
+    <row r="27" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
         <v>45680</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="26">
         <v>38.47</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="26">
         <v>2.27</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="26">
         <f>SUM(C27:D27)</f>
         <v>40.74</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="27.75">
-      <c r="A28" s="29">
+    <row r="28" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
         <v>45681</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="26">
         <v>26.33</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="26">
         <v>1.25</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="26">
         <f t="shared" ref="E28:E36" si="0">SUM(C28:D28)</f>
         <v>27.58</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27.75">
-      <c r="A29" s="29">
+    <row r="29" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
         <v>45682</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="26">
         <v>37.51</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="26">
         <v>1.03</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>38.54</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="27.75">
-      <c r="A30" s="29">
+    <row r="30" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
         <v>45683</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="26">
         <v>32.619999999999997</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="26">
         <v>0.81</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>33.43</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21">
-      <c r="A31" s="33" t="s">
+    <row r="31" spans="1:6" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34">
+      <c r="B31" s="28"/>
+      <c r="C31" s="29">
         <f t="shared" ref="C31:E31" si="1">SUM(C24:C30)</f>
         <v>134.93</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="29">
         <f t="shared" si="1"/>
         <v>5.3599999999999994</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="29">
         <f t="shared" si="1"/>
         <v>140.29</v>
       </c>
-      <c r="F31" s="77"/>
-    </row>
-    <row r="32" spans="1:6" ht="27.75">
-      <c r="A32" s="29">
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
         <v>45684</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="26">
         <v>39.159999999999997</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="26">
         <v>2.9</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>42.059999999999995</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="27.75">
-      <c r="A33" s="29">
+    <row r="33" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
         <v>45685</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="26">
         <v>22.6</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="26">
         <v>0.86</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="26">
         <f t="shared" si="0"/>
         <v>23.46</v>
       </c>
-      <c r="F33" s="78" t="s">
+      <c r="F33" s="70" t="s">
         <v>133</v>
       </c>
       <c r="G33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="27.75">
-      <c r="A34" s="29">
+    <row r="34" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
         <v>45686</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="31">
-        <v>0</v>
-      </c>
-      <c r="D34" s="31">
-        <v>0</v>
-      </c>
-      <c r="E34" s="31">
+      <c r="C34" s="26">
+        <v>0</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="27.75">
-      <c r="A35" s="29">
+    <row r="35" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
         <v>45687</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="31">
-        <v>0</v>
-      </c>
-      <c r="D35" s="31">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31">
+      <c r="C35" s="26">
+        <v>0</v>
+      </c>
+      <c r="D35" s="26">
+        <v>0</v>
+      </c>
+      <c r="E35" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="78" t="s">
+      <c r="F35" s="70" t="s">
         <v>133</v>
       </c>
       <c r="H35" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="27.75">
-      <c r="A36" s="29">
+    <row r="36" spans="1:8" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="24">
         <v>45688</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="31">
-        <v>0</v>
-      </c>
-      <c r="D36" s="31">
-        <v>0</v>
-      </c>
-      <c r="E36" s="31">
+      <c r="C36" s="26">
+        <v>0</v>
+      </c>
+      <c r="D36" s="26">
+        <v>0</v>
+      </c>
+      <c r="E36" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="78" t="s">
+      <c r="F36" s="70" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="36">
+      <c r="B37" s="28"/>
+      <c r="C37" s="31">
         <f>SUM(C32:C36)</f>
         <v>61.76</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="31">
         <f t="shared" ref="D37:E37" si="2">SUM(D32:D36)</f>
         <v>3.76</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="31">
         <f t="shared" si="2"/>
         <v>65.52</v>
       </c>
-      <c r="F37" s="77"/>
-    </row>
-    <row r="38" spans="1:8" ht="21">
-      <c r="A38" s="37" t="s">
+      <c r="F37" s="69"/>
+    </row>
+    <row r="38" spans="1:8" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38">
+      <c r="B38" s="32"/>
+      <c r="C38" s="33">
         <f>SUM(C31+C37)</f>
         <v>196.69</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="33">
         <f t="shared" ref="D38:E38" si="3">SUM(D31+D37)</f>
         <v>9.1199999999999992</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="33">
         <f t="shared" si="3"/>
         <v>205.81</v>
       </c>
-      <c r="F38" s="77"/>
+      <c r="F38" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5848,7 +5802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W16"/>
   <sheetViews>
@@ -5856,53 +5810,53 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.21875" style="1" customWidth="1"/>
     <col min="20" max="20" width="16" style="1" customWidth="1"/>
-    <col min="21" max="21" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="38.25">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:23" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-    </row>
-    <row r="2" spans="1:23" ht="76.5" customHeight="1">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+    </row>
+    <row r="2" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5967,309 +5921,309 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="27.75">
+    <row r="3" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-    </row>
-    <row r="4" spans="1:23" ht="27.75">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="27.75">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:23" s="11" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" s="12" customFormat="1" ht="27.75">
-      <c r="A6" s="18" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" spans="1:23" ht="27.75">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="1:23" ht="27.75">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="1:23" ht="27.75">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="1:23" ht="27.75">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="1:23" ht="27.75">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" ht="27.75">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:23" ht="27.75">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="19"/>
-    </row>
-    <row r="14" spans="1:23" ht="27.75">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:23" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="21"/>
-    </row>
-    <row r="15" spans="1:23" s="14" customFormat="1" ht="27.75">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" s="13" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
@@ -6350,14 +6304,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="2">
